--- a/xls/testxls.xlsx
+++ b/xls/testxls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="60" windowWidth="8832" windowHeight="3480"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="10848" windowHeight="3480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -30,55 +30,43 @@
     <t>description</t>
   </si>
   <si>
-    <t>fld1</t>
-  </si>
-  <si>
-    <t>fld2</t>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>กกก</t>
+  </si>
+  <si>
+    <t>ขขข</t>
+  </si>
+  <si>
+    <t>gg-pin-green</t>
+  </si>
+  <si>
+    <t>คคค</t>
+  </si>
+  <si>
+    <t>งงง</t>
   </si>
   <si>
     <t>aaa</t>
   </si>
   <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>gg-pin-blue</t>
+  </si>
+  <si>
     <t>ccc</t>
   </si>
   <si>
-    <t>bbb</t>
-  </si>
-  <si>
     <t>ddd</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>gg-pin-blue</t>
-  </si>
-  <si>
-    <t>gg-pin-pink</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>yyy</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>gg-pin-greenaaa</t>
-  </si>
-  <si>
-    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -93,7 +81,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Angsana New"/>
       <family val="2"/>
@@ -423,25 +411,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="40.200000000000003" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:7" x14ac:dyDescent="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,79 +442,59 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:7" x14ac:dyDescent="1">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:7" x14ac:dyDescent="1">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A4" s="1">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
